--- a/AAII_Financials/Quarterly/FSSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FSSN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>FSSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,79 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
@@ -749,11 +752,11 @@
         <v>100</v>
       </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
@@ -761,16 +764,19 @@
         <v>100</v>
       </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
       <c r="O8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -810,13 +816,16 @@
       <c r="O9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
@@ -831,11 +840,11 @@
         <v>100</v>
       </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
@@ -843,16 +852,19 @@
         <v>100</v>
       </c>
       <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
       <c r="O10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,13 +880,14 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -883,34 +896,37 @@
         <v>100</v>
       </c>
       <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
-        <v>100</v>
-      </c>
       <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
         <v>400</v>
-      </c>
-      <c r="J12" s="3">
-        <v>200</v>
       </c>
       <c r="K12" s="3">
         <v>200</v>
       </c>
       <c r="L12" s="3">
+        <v>200</v>
+      </c>
+      <c r="M12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -950,37 +966,40 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-700</v>
       </c>
-      <c r="H14" s="3">
-        <v>100</v>
-      </c>
       <c r="I14" s="3">
+        <v>100</v>
+      </c>
+      <c r="J14" s="3">
         <v>-300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>100</v>
@@ -988,11 +1007,14 @@
       <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>100</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
-      </c>
-      <c r="E17" s="3">
-        <v>900</v>
       </c>
       <c r="F17" s="3">
         <v>900</v>
       </c>
       <c r="G17" s="3">
+        <v>900</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-800</v>
       </c>
       <c r="F18" s="3">
         <v>-800</v>
       </c>
       <c r="G18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,19 +1177,20 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-800</v>
-      </c>
-      <c r="F20" s="3">
-        <v>300</v>
       </c>
       <c r="G20" s="3">
         <v>300</v>
@@ -1166,69 +1199,75 @@
         <v>300</v>
       </c>
       <c r="I20" s="3">
+        <v>300</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1236,81 +1275,87 @@
         <v>800</v>
       </c>
       <c r="E22" s="3">
+        <v>800</v>
+      </c>
+      <c r="F22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>600</v>
       </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
       <c r="O22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,19 +1703,22 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>800</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-300</v>
       </c>
       <c r="G32" s="3">
         <v>-300</v>
@@ -1658,69 +1727,75 @@
         <v>-300</v>
       </c>
       <c r="I32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>100</v>
-      </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,8 +1966,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1896,19 +1982,19 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -1922,8 +2008,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,29 +2052,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>400</v>
       </c>
       <c r="F43" s="3">
+        <v>400</v>
+      </c>
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
@@ -1996,16 +2088,19 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2018,8 +2113,8 @@
       <c r="F44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
+      <c r="G44" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -2033,8 +2128,8 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>10</v>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>10</v>
@@ -2045,90 +2140,99 @@
       <c r="O44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1500</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,8 +2272,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2209,8 +2316,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2227,7 +2337,7 @@
         <v>100</v>
       </c>
       <c r="H49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I49" s="3">
         <v>200</v>
@@ -2244,14 +2354,17 @@
       <c r="M49" s="3">
         <v>200</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>10</v>
+      <c r="N49" s="3">
+        <v>200</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,28 +2536,31 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>900</v>
-      </c>
-      <c r="I54" s="3">
-        <v>500</v>
       </c>
       <c r="J54" s="3">
         <v>500</v>
@@ -2444,19 +2569,22 @@
         <v>500</v>
       </c>
       <c r="L54" s="3">
+        <v>500</v>
+      </c>
+      <c r="M54" s="3">
         <v>600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,49 +2618,53 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1000</v>
       </c>
       <c r="F57" s="3">
         <v>1000</v>
       </c>
       <c r="G57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>900</v>
       </c>
       <c r="J57" s="3">
         <v>900</v>
       </c>
       <c r="K57" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L57" s="3">
         <v>800</v>
       </c>
       <c r="M57" s="3">
+        <v>800</v>
+      </c>
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2539,152 +2672,161 @@
         <v>1300</v>
       </c>
       <c r="E58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>900</v>
-      </c>
-      <c r="H58" s="3">
-        <v>700</v>
       </c>
       <c r="I58" s="3">
         <v>700</v>
       </c>
       <c r="J58" s="3">
+        <v>700</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
-      </c>
-      <c r="K58" s="3">
-        <v>600</v>
       </c>
       <c r="L58" s="3">
         <v>600</v>
       </c>
       <c r="M58" s="3">
+        <v>600</v>
+      </c>
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E60" s="3">
         <v>4700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>700</v>
+      </c>
+      <c r="E61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2694,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2720,8 +2865,8 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>10</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>10</v>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E66" s="3">
         <v>5100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3200</v>
       </c>
       <c r="K66" s="3">
         <v>3200</v>
       </c>
       <c r="L66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M66" s="3">
         <v>2200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-27500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-26100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-23500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-22500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-21100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-20200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-18900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-17100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-14200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3500</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-2600</v>
       </c>
       <c r="F76" s="3">
         <v>-2600</v>
       </c>
       <c r="G76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="H76" s="3">
         <v>-2900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3500</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-2700</v>
       </c>
       <c r="K76" s="3">
         <v>-2700</v>
       </c>
       <c r="L76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="M76" s="3">
         <v>-1600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3457,10 +3655,10 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3468,11 +3666,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3748,8 +3968,8 @@
       <c r="F91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -3760,8 +3980,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>10</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>10</v>
@@ -3775,8 +3995,11 @@
       <c r="O91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3890,16 +4119,19 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>500</v>
       </c>
       <c r="K100" s="3">
         <v>500</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,8 +4409,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4173,13 +4424,13 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
       </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I102" s="3">
         <v>100</v>
@@ -4188,7 +4439,7 @@
         <v>100</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -4200,6 +4451,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FSSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FSSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>FSSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,132 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
       <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
       <c r="M8" s="3">
         <v>100</v>
       </c>
       <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -793,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -819,52 +833,64 @@
       <c r="P9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
       <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
       <c r="M10" s="3">
         <v>100</v>
       </c>
       <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +907,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
-        <v>100</v>
+      <c r="F12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
       </c>
       <c r="H12" s="3">
+        <v>300</v>
+      </c>
+      <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
-        <v>100</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +1003,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -978,43 +1018,49 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="F14" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-700</v>
       </c>
-      <c r="I14" s="3">
-        <v>100</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>100</v>
+      </c>
+      <c r="L14" s="3">
         <v>-300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>100</v>
-      </c>
       <c r="N14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>100</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
+      <c r="D17" s="3">
+        <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>800</v>
+      </c>
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
-        <v>900</v>
-      </c>
-      <c r="G17" s="3">
-        <v>900</v>
-      </c>
       <c r="H17" s="3">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="I17" s="3">
         <v>900</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
+        <v>900</v>
+      </c>
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
+      <c r="D18" s="3">
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
-        <v>-800</v>
-      </c>
       <c r="G18" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>-1100</v>
       </c>
       <c r="I18" s="3">
         <v>-800</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,184 +1244,210 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
+      <c r="D20" s="3">
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="F20" s="3">
-        <v>-800</v>
+        <v>-2900</v>
       </c>
       <c r="G20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>300</v>
+        <v>-600</v>
       </c>
       <c r="I20" s="3">
         <v>300</v>
       </c>
       <c r="J20" s="3">
+        <v>300</v>
+      </c>
+      <c r="K20" s="3">
+        <v>300</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
+      <c r="D21" s="3">
+        <v>-200</v>
       </c>
       <c r="E21" s="3">
+        <v>500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-500</v>
-      </c>
       <c r="H21" s="3">
-        <v>200</v>
+        <v>-1700</v>
       </c>
       <c r="I21" s="3">
         <v>-500</v>
       </c>
       <c r="J21" s="3">
+        <v>200</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="F22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>500</v>
-      </c>
       <c r="H22" s="3">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="I22" s="3">
         <v>500</v>
       </c>
       <c r="J22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K22" s="3">
+        <v>500</v>
+      </c>
+      <c r="L22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>600</v>
       </c>
-      <c r="O22" s="3">
-        <v>100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>10</v>
+      <c r="D23" s="3">
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1490,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>10</v>
+      <c r="D26" s="3">
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>10</v>
+      <c r="D27" s="3">
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1840,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>10</v>
+      <c r="D32" s="3">
+        <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="F32" s="3">
-        <v>800</v>
+        <v>2900</v>
       </c>
       <c r="G32" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-300</v>
+        <v>600</v>
       </c>
       <c r="I32" s="3">
         <v>-300</v>
       </c>
       <c r="J32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>10</v>
+      <c r="D33" s="3">
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
+      <c r="D35" s="3">
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2139,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1985,22 +2159,22 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2011,8 +2185,14 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2235,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2064,26 +2250,26 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
@@ -2091,16 +2277,22 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2116,11 +2308,11 @@
       <c r="G44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
+      <c r="H44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -2131,11 +2323,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>10</v>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>10</v>
@@ -2143,31 +2335,37 @@
       <c r="P44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1500</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2176,63 +2374,75 @@
         <v>200</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
+        <v>200</v>
+      </c>
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
-      </c>
-      <c r="J46" s="3">
-        <v>300</v>
-      </c>
-      <c r="K46" s="3">
-        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>300</v>
       </c>
       <c r="M46" s="3">
+        <v>200</v>
+      </c>
+      <c r="N46" s="3">
+        <v>300</v>
+      </c>
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2485,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2535,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2340,10 +2562,10 @@
         <v>100</v>
       </c>
       <c r="I49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K49" s="3">
         <v>200</v>
@@ -2357,14 +2579,20 @@
       <c r="N49" s="3">
         <v>200</v>
       </c>
-      <c r="O49" s="3" t="s">
+      <c r="O49" s="3">
+        <v>200</v>
+      </c>
+      <c r="P49" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="R49" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2685,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2735,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>100</v>
+      </c>
+      <c r="F54" s="3">
         <v>600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>900</v>
-      </c>
-      <c r="J54" s="3">
-        <v>500</v>
-      </c>
-      <c r="K54" s="3">
-        <v>500</v>
       </c>
       <c r="L54" s="3">
         <v>500</v>
       </c>
       <c r="M54" s="3">
+        <v>500</v>
+      </c>
+      <c r="N54" s="3">
+        <v>500</v>
+      </c>
+      <c r="O54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,260 +2879,292 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>800</v>
       </c>
       <c r="J57" s="3">
         <v>900</v>
       </c>
       <c r="K57" s="3">
+        <v>800</v>
+      </c>
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
+        <v>900</v>
+      </c>
+      <c r="N57" s="3">
         <v>800</v>
-      </c>
-      <c r="M57" s="3">
-        <v>800</v>
-      </c>
-      <c r="N57" s="3">
-        <v>700</v>
       </c>
       <c r="O57" s="3">
         <v>800</v>
       </c>
       <c r="P57" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>800</v>
+      </c>
+      <c r="R57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
-      </c>
-      <c r="M58" s="3">
-        <v>600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>700</v>
       </c>
       <c r="O58" s="3">
         <v>600</v>
       </c>
       <c r="P58" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>600</v>
+      </c>
+      <c r="R58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F59" s="3">
         <v>4200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F60" s="3">
         <v>7600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>200</v>
+      </c>
+      <c r="E61" s="3">
         <v>700</v>
       </c>
-      <c r="E61" s="3">
-        <v>400</v>
-      </c>
       <c r="F61" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G61" s="3">
         <v>400</v>
       </c>
       <c r="H61" s="3">
+        <v>500</v>
+      </c>
+      <c r="I61" s="3">
+        <v>400</v>
+      </c>
+      <c r="J61" s="3">
         <v>600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>300</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>10</v>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>10</v>
@@ -2883,8 +3175,14 @@
       <c r="P62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F66" s="3">
         <v>8300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3600</v>
-      </c>
-      <c r="H66" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I66" s="3">
-        <v>4900</v>
       </c>
       <c r="J66" s="3">
         <v>4000</v>
       </c>
       <c r="K66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="L66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M66" s="3">
         <v>3200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-31800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-27500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-26100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-23500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-22500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-21100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-20200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-18900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-18500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-17100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-15500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-14200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-7700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-4000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>10</v>
+      <c r="D81" s="3">
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4024,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3658,22 +4056,28 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-700</v>
-      </c>
       <c r="H89" s="3">
-        <v>-1400</v>
+        <v>-1000</v>
       </c>
       <c r="I89" s="3">
         <v>-700</v>
       </c>
       <c r="J89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,22 +4394,24 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>10</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -3983,11 +4425,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>10</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>10</v>
@@ -3998,8 +4440,14 @@
       <c r="P91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4540,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4122,16 +4582,22 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,40 +4810,46 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>300</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>900</v>
+      </c>
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
-      </c>
-      <c r="L100" s="3">
-        <v>500</v>
-      </c>
-      <c r="M100" s="3">
-        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>500</v>
@@ -4366,10 +4858,16 @@
         <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4910,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4427,25 +4931,25 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
         <v>-100</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K102" s="3">
         <v>100</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -4454,6 +4958,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FSSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FSSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>FSSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,20 +752,20 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
       <c r="J8" s="3">
         <v>100</v>
       </c>
@@ -769,11 +773,11 @@
         <v>100</v>
       </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
@@ -781,16 +785,19 @@
         <v>100</v>
       </c>
       <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
       <c r="R8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -798,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -807,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -839,8 +846,11 @@
       <c r="R9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -851,17 +861,17 @@
         <v>100</v>
       </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
       <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
@@ -869,11 +879,11 @@
         <v>100</v>
       </c>
       <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
@@ -881,16 +891,19 @@
         <v>100</v>
       </c>
       <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
-        <v>100</v>
-      </c>
       <c r="R10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -918,49 +932,52 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
-      </c>
-      <c r="F12" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="3">
-        <v>100</v>
-      </c>
       <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="3">
-        <v>100</v>
-      </c>
       <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
-        <v>100</v>
-      </c>
       <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
         <v>400</v>
-      </c>
-      <c r="M12" s="3">
-        <v>200</v>
       </c>
       <c r="N12" s="3">
         <v>200</v>
       </c>
       <c r="O12" s="3">
+        <v>200</v>
+      </c>
+      <c r="P12" s="3">
         <v>300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1024,31 +1044,31 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-700</v>
       </c>
-      <c r="K14" s="3">
-        <v>100</v>
-      </c>
       <c r="L14" s="3">
+        <v>100</v>
+      </c>
+      <c r="M14" s="3">
         <v>-300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>100</v>
@@ -1056,11 +1076,14 @@
       <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>100</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,8 +1152,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1135,49 +1162,52 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,49 +1215,52 @@
         <v>-100</v>
       </c>
       <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-900</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-600</v>
       </c>
       <c r="G18" s="3">
         <v>-600</v>
       </c>
       <c r="H18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,28 +1279,29 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>1500</v>
       </c>
       <c r="E20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2900</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-600</v>
-      </c>
-      <c r="I20" s="3">
-        <v>300</v>
       </c>
       <c r="J20" s="3">
         <v>300</v>
@@ -1276,178 +1310,190 @@
         <v>300</v>
       </c>
       <c r="L20" s="3">
+        <v>300</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-200</v>
+        <v>1400</v>
       </c>
       <c r="E21" s="3">
+        <v>300</v>
+      </c>
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>600</v>
+      </c>
+      <c r="F22" s="3">
         <v>400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>800</v>
       </c>
       <c r="G22" s="3">
         <v>800</v>
       </c>
       <c r="H22" s="3">
+        <v>800</v>
+      </c>
+      <c r="I22" s="3">
         <v>1900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>600</v>
       </c>
-      <c r="Q22" s="3">
-        <v>100</v>
-      </c>
       <c r="R22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
       <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-4300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
       <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-4300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
       <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-4300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,28 +1913,31 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>-1500</v>
       </c>
       <c r="E32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2900</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>600</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-300</v>
       </c>
       <c r="J32" s="3">
         <v>-300</v>
@@ -1876,78 +1946,84 @@
         <v>-300</v>
       </c>
       <c r="L32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
-        <v>100</v>
-      </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
       <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-4300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
       <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-4300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2227,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2165,19 +2252,19 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2191,8 +2278,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,13 +2331,16 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2256,23 +2349,23 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>400</v>
       </c>
       <c r="I43" s="3">
+        <v>400</v>
+      </c>
+      <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
@@ -2283,36 +2376,39 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>10</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -2329,8 +2425,8 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>10</v>
+      <c r="O44" s="3">
+        <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>10</v>
@@ -2341,8 +2437,11 @@
       <c r="R44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2353,96 +2452,102 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1500</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
-        <v>100</v>
-      </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2596,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2541,13 +2649,16 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
@@ -2568,7 +2679,7 @@
         <v>100</v>
       </c>
       <c r="K49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L49" s="3">
         <v>200</v>
@@ -2585,14 +2696,17 @@
       <c r="P49" s="3">
         <v>200</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>10</v>
+      <c r="Q49" s="3">
+        <v>200</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,8 +2914,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2803,25 +2929,25 @@
         <v>100</v>
       </c>
       <c r="F54" s="3">
+        <v>100</v>
+      </c>
+      <c r="G54" s="3">
         <v>600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>900</v>
-      </c>
-      <c r="L54" s="3">
-        <v>500</v>
       </c>
       <c r="M54" s="3">
         <v>500</v>
@@ -2830,19 +2956,22 @@
         <v>500</v>
       </c>
       <c r="O54" s="3">
+        <v>500</v>
+      </c>
+      <c r="P54" s="3">
         <v>600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,247 +3011,260 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1000</v>
       </c>
       <c r="I57" s="3">
         <v>1000</v>
       </c>
       <c r="J57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
-      </c>
-      <c r="L57" s="3">
-        <v>900</v>
       </c>
       <c r="M57" s="3">
         <v>900</v>
       </c>
       <c r="N57" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="O57" s="3">
         <v>800</v>
       </c>
       <c r="P57" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E58" s="3">
         <v>1800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1300</v>
       </c>
       <c r="G58" s="3">
         <v>1300</v>
       </c>
       <c r="H58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>900</v>
-      </c>
-      <c r="K58" s="3">
-        <v>700</v>
       </c>
       <c r="L58" s="3">
         <v>700</v>
       </c>
       <c r="M58" s="3">
+        <v>700</v>
+      </c>
+      <c r="N58" s="3">
         <v>300</v>
-      </c>
-      <c r="N58" s="3">
-        <v>600</v>
       </c>
       <c r="O58" s="3">
         <v>600</v>
       </c>
       <c r="P58" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q58" s="3">
         <v>700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="E59" s="3">
         <v>2500</v>
       </c>
       <c r="F59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G59" s="3">
         <v>4200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>400</v>
+      </c>
+      <c r="E61" s="3">
         <v>200</v>
-      </c>
-      <c r="E61" s="3">
-        <v>700</v>
       </c>
       <c r="F61" s="3">
         <v>700</v>
       </c>
       <c r="G61" s="3">
+        <v>700</v>
+      </c>
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>300</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3157,8 +3303,8 @@
       <c r="J62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3166,8 +3312,8 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>10</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>10</v>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E66" s="3">
         <v>6900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4000</v>
-      </c>
-      <c r="M66" s="3">
-        <v>3200</v>
       </c>
       <c r="N66" s="3">
         <v>3200</v>
       </c>
       <c r="O66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P66" s="3">
         <v>2200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-32100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-31700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-31800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-27500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-26100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-23500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-22500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-21100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-20200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-18900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-18500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-17100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-14200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-6600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-7700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-2600</v>
       </c>
       <c r="I76" s="3">
         <v>-2600</v>
       </c>
       <c r="J76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K76" s="3">
         <v>-2900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3500</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-2700</v>
       </c>
       <c r="N76" s="3">
         <v>-2700</v>
       </c>
       <c r="O76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="P76" s="3">
         <v>-1600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
-        <v>100</v>
-      </c>
       <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-4300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4062,10 +4261,10 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4073,11 +4272,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="Q89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-600</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-400</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4431,8 +4652,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>10</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>10</v>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4773,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4588,16 +4818,19 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5059,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4825,49 +5071,52 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1200</v>
-      </c>
-      <c r="M100" s="3">
-        <v>500</v>
       </c>
       <c r="N100" s="3">
         <v>500</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,8 +5165,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4934,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
@@ -4943,7 +5195,7 @@
         <v>-100</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L102" s="3">
         <v>100</v>
@@ -4952,7 +5204,7 @@
         <v>100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -4964,6 +5216,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FSSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FSSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>FSSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,93 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -752,7 +759,7 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
@@ -764,40 +771,46 @@
         <v>100</v>
       </c>
       <c r="I8" s="3">
+        <v>200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
       <c r="P8" s="3">
         <v>100</v>
       </c>
       <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
-      <c r="S8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -805,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -849,8 +862,14 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -864,7 +883,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
@@ -876,34 +895,40 @@
         <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
       </c>
       <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
       <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -932,52 +959,58 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
-        <v>100</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="3">
-        <v>100</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3">
-        <v>100</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
-        <v>100</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>200</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,13 +1062,19 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1047,43 +1086,49 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-700</v>
       </c>
-      <c r="L14" s="3">
-        <v>100</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
+        <v>100</v>
+      </c>
+      <c r="O14" s="3">
         <v>-300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>100</v>
-      </c>
       <c r="Q14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>100</v>
+      </c>
+      <c r="T14" s="3">
+        <v>100</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>900</v>
       </c>
       <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
+        <v>900</v>
+      </c>
+      <c r="O17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-800</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,220 +1345,246 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F20" s="3">
         <v>1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-2900</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-600</v>
-      </c>
-      <c r="J20" s="3">
-        <v>300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>300</v>
       </c>
       <c r="L20" s="3">
         <v>300</v>
       </c>
       <c r="M20" s="3">
+        <v>300</v>
+      </c>
+      <c r="N20" s="3">
+        <v>300</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F21" s="3">
         <v>1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-3500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K21" s="3">
-        <v>200</v>
       </c>
       <c r="L21" s="3">
         <v>-500</v>
       </c>
       <c r="M21" s="3">
+        <v>200</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-700</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1600</v>
       </c>
       <c r="L22" s="3">
         <v>500</v>
       </c>
       <c r="M22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N22" s="3">
+        <v>500</v>
+      </c>
+      <c r="O22" s="3">
         <v>1000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>600</v>
       </c>
-      <c r="R22" s="3">
-        <v>100</v>
-      </c>
-      <c r="S22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>100</v>
+      </c>
+      <c r="U22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F23" s="3">
         <v>1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-4300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1636,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F26" s="3">
         <v>1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-4300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F27" s="3">
         <v>1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-4300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +2049,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>2900</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>600</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-300</v>
       </c>
       <c r="L32" s="3">
         <v>-300</v>
       </c>
       <c r="M32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F33" s="3">
         <v>1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-4300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F35" s="3">
         <v>1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-4300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,8 +2399,10 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2255,22 +2428,22 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2281,8 +2454,14 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,44 +2513,50 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
@@ -2379,16 +2564,22 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2428,11 +2619,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>10</v>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>10</v>
@@ -2440,13 +2631,19 @@
       <c r="S44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2455,25 +2652,25 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1500</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2482,72 +2679,84 @@
         <v>200</v>
       </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
-      </c>
-      <c r="M46" s="3">
-        <v>300</v>
-      </c>
-      <c r="N46" s="3">
-        <v>200</v>
       </c>
       <c r="O46" s="3">
         <v>300</v>
       </c>
       <c r="P46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>300</v>
+      </c>
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,8 +2808,14 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2652,8 +2867,14 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2661,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
@@ -2682,10 +2903,10 @@
         <v>100</v>
       </c>
       <c r="L49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N49" s="3">
         <v>200</v>
@@ -2699,14 +2920,20 @@
       <c r="Q49" s="3">
         <v>200</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="R49" s="3">
+        <v>200</v>
+      </c>
+      <c r="S49" s="3">
+        <v>200</v>
+      </c>
+      <c r="T49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S49" s="3" t="s">
+      <c r="U49" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2864,8 +3103,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,8 +3162,14 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2932,46 +3183,52 @@
         <v>100</v>
       </c>
       <c r="G54" s="3">
+        <v>100</v>
+      </c>
+      <c r="H54" s="3">
+        <v>100</v>
+      </c>
+      <c r="I54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>900</v>
-      </c>
-      <c r="M54" s="3">
-        <v>500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>500</v>
       </c>
       <c r="O54" s="3">
         <v>500</v>
       </c>
       <c r="P54" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>500</v>
+      </c>
+      <c r="R54" s="3">
         <v>600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,273 +3271,305 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
-      </c>
-      <c r="K57" s="3">
-        <v>900</v>
-      </c>
-      <c r="L57" s="3">
-        <v>800</v>
       </c>
       <c r="M57" s="3">
         <v>900</v>
       </c>
       <c r="N57" s="3">
+        <v>800</v>
+      </c>
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q57" s="3">
         <v>800</v>
-      </c>
-      <c r="P57" s="3">
-        <v>800</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>700</v>
       </c>
       <c r="R57" s="3">
         <v>800</v>
       </c>
       <c r="S57" s="3">
+        <v>700</v>
+      </c>
+      <c r="T57" s="3">
+        <v>800</v>
+      </c>
+      <c r="U57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F58" s="3">
         <v>2700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>600</v>
-      </c>
-      <c r="P58" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>700</v>
       </c>
       <c r="R58" s="3">
         <v>600</v>
       </c>
       <c r="S58" s="3">
+        <v>700</v>
+      </c>
+      <c r="T58" s="3">
+        <v>600</v>
+      </c>
+      <c r="U58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F60" s="3">
         <v>5000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>7600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>500</v>
+      </c>
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>700</v>
-      </c>
-      <c r="H61" s="3">
-        <v>400</v>
-      </c>
-      <c r="I61" s="3">
-        <v>500</v>
       </c>
       <c r="J61" s="3">
         <v>400</v>
       </c>
       <c r="K61" s="3">
+        <v>500</v>
+      </c>
+      <c r="L61" s="3">
+        <v>400</v>
+      </c>
+      <c r="M61" s="3">
         <v>600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>300</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3306,20 +3597,20 @@
       <c r="K62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>10</v>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>10</v>
@@ -3330,8 +3621,14 @@
       <c r="S62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F66" s="3">
         <v>5400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3600</v>
-      </c>
-      <c r="K66" s="3">
-        <v>4000</v>
-      </c>
-      <c r="L66" s="3">
-        <v>4900</v>
       </c>
       <c r="M66" s="3">
         <v>4000</v>
       </c>
       <c r="N66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="O66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="P66" s="3">
         <v>3200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-30900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-32100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-31700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-31800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-27500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-26100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-23500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-22500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-21100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-20200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-18900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-18500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-15500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-14200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-5300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-6800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-6600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-7700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-4000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F81" s="3">
         <v>1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-4300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4264,22 +4661,28 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-1400</v>
       </c>
       <c r="L89" s="3">
         <v>-700</v>
       </c>
       <c r="M89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O89" s="3">
         <v>-1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4655,11 +5096,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>10</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>10</v>
@@ -4670,8 +5111,14 @@
       <c r="S91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +5229,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4821,16 +5280,22 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,8 +5547,14 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5071,40 +5562,40 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
-      </c>
-      <c r="O100" s="3">
-        <v>500</v>
-      </c>
-      <c r="P100" s="3">
-        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>500</v>
@@ -5113,10 +5604,16 @@
         <v>100</v>
       </c>
       <c r="S100" s="3">
+        <v>500</v>
+      </c>
+      <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,8 +5665,14 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5189,28 +5692,28 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
         <v>100</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -5219,6 +5722,12 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FSSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FSSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>FSSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,102 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
@@ -765,23 +769,23 @@
         <v>100</v>
       </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
       <c r="M8" s="3">
         <v>100</v>
       </c>
@@ -789,11 +793,11 @@
         <v>100</v>
       </c>
       <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
       <c r="Q8" s="3">
         <v>100</v>
       </c>
@@ -801,16 +805,19 @@
         <v>100</v>
       </c>
       <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="T8" s="3">
-        <v>100</v>
-      </c>
       <c r="U8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -824,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -836,10 +843,10 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -868,13 +875,16 @@
       <c r="U9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
@@ -889,17 +899,17 @@
         <v>100</v>
       </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
       <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
       <c r="M10" s="3">
         <v>100</v>
       </c>
@@ -907,11 +917,11 @@
         <v>100</v>
       </c>
       <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
       <c r="Q10" s="3">
         <v>100</v>
       </c>
@@ -919,16 +929,19 @@
         <v>100</v>
       </c>
       <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="T10" s="3">
-        <v>100</v>
-      </c>
       <c r="U10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -965,52 +979,55 @@
         <v>100</v>
       </c>
       <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
-        <v>100</v>
-      </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="3">
-        <v>100</v>
-      </c>
       <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3">
-        <v>100</v>
-      </c>
       <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
-        <v>100</v>
-      </c>
       <c r="O12" s="3">
+        <v>100</v>
+      </c>
+      <c r="P12" s="3">
         <v>400</v>
-      </c>
-      <c r="P12" s="3">
-        <v>200</v>
       </c>
       <c r="Q12" s="3">
         <v>200</v>
       </c>
       <c r="R12" s="3">
+        <v>200</v>
+      </c>
+      <c r="S12" s="3">
         <v>300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>200</v>
       </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,17 +1085,20 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1400</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1092,31 +1112,31 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-700</v>
       </c>
-      <c r="N14" s="3">
-        <v>100</v>
-      </c>
       <c r="O14" s="3">
+        <v>100</v>
+      </c>
+      <c r="P14" s="3">
         <v>-300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-200</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>100</v>
@@ -1124,11 +1144,14 @@
       <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>100</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E17" s="3">
-        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
       </c>
-      <c r="U17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
         <v>1300</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-600</v>
       </c>
       <c r="J18" s="3">
         <v>-600</v>
       </c>
       <c r="K18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,37 +1380,38 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2900</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-600</v>
-      </c>
-      <c r="L20" s="3">
-        <v>300</v>
       </c>
       <c r="M20" s="3">
         <v>300</v>
@@ -1386,205 +1420,217 @@
         <v>300</v>
       </c>
       <c r="O20" s="3">
+        <v>300</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
         <v>3500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-700</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="V21" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
-      </c>
-      <c r="E22" s="3">
-        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
       </c>
       <c r="G22" s="3">
+        <v>200</v>
+      </c>
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>800</v>
       </c>
       <c r="J22" s="3">
         <v>800</v>
       </c>
       <c r="K22" s="3">
+        <v>800</v>
+      </c>
+      <c r="L22" s="3">
         <v>1900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>600</v>
       </c>
-      <c r="T22" s="3">
-        <v>100</v>
-      </c>
       <c r="U22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-4300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-4300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-4300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,37 +2122,40 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2900</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>600</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-300</v>
       </c>
       <c r="M32" s="3">
         <v>-300</v>
@@ -2094,87 +2164,93 @@
         <v>-300</v>
       </c>
       <c r="O32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
-        <v>100</v>
-      </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-4300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-4300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,8 +2487,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2434,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2460,8 +2547,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2609,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2531,10 +2624,10 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2543,23 +2636,23 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>400</v>
       </c>
       <c r="L43" s="3">
+        <v>400</v>
+      </c>
+      <c r="M43" s="3">
         <v>900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
@@ -2570,16 +2663,19 @@
         <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
         <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2625,8 +2721,8 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>10</v>
+      <c r="R44" s="3">
+        <v>0</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>10</v>
@@ -2637,16 +2733,19 @@
       <c r="U44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2658,105 +2757,111 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1500</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
-        <v>100</v>
-      </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +2919,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2873,13 +2981,16 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
@@ -2888,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>100</v>
@@ -2909,7 +3020,7 @@
         <v>100</v>
       </c>
       <c r="N49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O49" s="3">
         <v>200</v>
@@ -2926,14 +3037,17 @@
       <c r="S49" s="3">
         <v>200</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>10</v>
+      <c r="T49" s="3">
+        <v>200</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,13 +3291,16 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
@@ -3189,25 +3315,25 @@
         <v>100</v>
       </c>
       <c r="I54" s="3">
+        <v>100</v>
+      </c>
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>900</v>
-      </c>
-      <c r="O54" s="3">
-        <v>500</v>
       </c>
       <c r="P54" s="3">
         <v>500</v>
@@ -3216,19 +3342,22 @@
         <v>500</v>
       </c>
       <c r="R54" s="3">
+        <v>500</v>
+      </c>
+      <c r="S54" s="3">
         <v>600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,292 +3403,305 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E57" s="3">
         <v>1000</v>
       </c>
       <c r="F57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1000</v>
       </c>
       <c r="L57" s="3">
         <v>1000</v>
       </c>
       <c r="M57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
-      </c>
-      <c r="O57" s="3">
-        <v>900</v>
       </c>
       <c r="P57" s="3">
         <v>900</v>
       </c>
       <c r="Q57" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="R57" s="3">
         <v>800</v>
       </c>
       <c r="S57" s="3">
+        <v>800</v>
+      </c>
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1300</v>
       </c>
       <c r="J58" s="3">
         <v>1300</v>
       </c>
       <c r="K58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>900</v>
-      </c>
-      <c r="N58" s="3">
-        <v>700</v>
       </c>
       <c r="O58" s="3">
         <v>700</v>
       </c>
       <c r="P58" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q58" s="3">
         <v>300</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>600</v>
       </c>
       <c r="R58" s="3">
         <v>600</v>
       </c>
       <c r="S58" s="3">
+        <v>600</v>
+      </c>
+      <c r="T58" s="3">
         <v>700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>2500</v>
       </c>
       <c r="H59" s="3">
         <v>2500</v>
       </c>
       <c r="I59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J59" s="3">
         <v>4200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>600</v>
+      </c>
+      <c r="E61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>200</v>
-      </c>
-      <c r="H61" s="3">
-        <v>700</v>
       </c>
       <c r="I61" s="3">
         <v>700</v>
       </c>
       <c r="J61" s="3">
+        <v>700</v>
+      </c>
+      <c r="K61" s="3">
         <v>400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>300</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3568,13 +3711,16 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>10</v>
+      <c r="D62" s="3">
+        <v>500</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>10</v>
@@ -3603,8 +3749,8 @@
       <c r="M62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3612,8 +3758,8 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>10</v>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>10</v>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4000</v>
-      </c>
-      <c r="P66" s="3">
-        <v>3200</v>
       </c>
       <c r="Q66" s="3">
         <v>3200</v>
       </c>
       <c r="R66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="S66" s="3">
         <v>2200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-31400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-34300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-30900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-32100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-31700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-31800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-27500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-26100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-23500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-22500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-21100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-20200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-18500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-17100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-15500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-14200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-7500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-6600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-7700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3500</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-2600</v>
       </c>
       <c r="L76" s="3">
         <v>-2600</v>
       </c>
       <c r="M76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="N76" s="3">
         <v>-2900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3500</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-2700</v>
       </c>
       <c r="Q76" s="3">
         <v>-2700</v>
       </c>
       <c r="R76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="S76" s="3">
         <v>-1600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-4300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4667,10 +4866,10 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4678,11 +4877,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5102,8 +5323,8 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>10</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>10</v>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5462,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5286,16 +5516,19 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1200</v>
-      </c>
-      <c r="P100" s="3">
-        <v>500</v>
       </c>
       <c r="Q100" s="3">
         <v>500</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
       <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,8 +5920,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5698,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
@@ -5707,7 +5959,7 @@
         <v>-100</v>
       </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O102" s="3">
         <v>100</v>
@@ -5716,7 +5968,7 @@
         <v>100</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -5728,6 +5980,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FSSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FSSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>FSSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,106 +665,110 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
@@ -772,23 +776,23 @@
         <v>100</v>
       </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
       <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
@@ -796,11 +800,11 @@
         <v>100</v>
       </c>
       <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
       <c r="R8" s="3">
         <v>100</v>
       </c>
@@ -808,16 +812,19 @@
         <v>100</v>
       </c>
       <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
         <v>300</v>
       </c>
-      <c r="U8" s="3">
-        <v>100</v>
-      </c>
       <c r="V8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -834,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -846,10 +853,10 @@
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -878,17 +885,20 @@
       <c r="V9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
@@ -902,17 +912,17 @@
         <v>100</v>
       </c>
       <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
       <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
@@ -920,11 +930,11 @@
         <v>100</v>
       </c>
       <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
-        <v>100</v>
-      </c>
       <c r="R10" s="3">
         <v>100</v>
       </c>
@@ -932,16 +942,19 @@
         <v>100</v>
       </c>
       <c r="T10" s="3">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
         <v>300</v>
       </c>
-      <c r="U10" s="3">
-        <v>100</v>
-      </c>
       <c r="V10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,13 +977,14 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -982,52 +996,55 @@
         <v>100</v>
       </c>
       <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
-        <v>100</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="3">
-        <v>100</v>
-      </c>
       <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3">
-        <v>100</v>
-      </c>
       <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3">
-        <v>100</v>
-      </c>
       <c r="P12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3">
         <v>400</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>200</v>
       </c>
       <c r="R12" s="3">
         <v>200</v>
       </c>
       <c r="S12" s="3">
+        <v>200</v>
+      </c>
+      <c r="T12" s="3">
         <v>300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>200</v>
       </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,20 +1105,23 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-1400</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1115,31 +1135,31 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-700</v>
       </c>
-      <c r="O14" s="3">
-        <v>100</v>
-      </c>
       <c r="P14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-200</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>100</v>
@@ -1147,11 +1167,14 @@
       <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="3">
+        <v>100</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>900</v>
       </c>
-      <c r="V17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-600</v>
       </c>
       <c r="K18" s="3">
         <v>-600</v>
       </c>
       <c r="L18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-800</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,40 +1414,41 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2900</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>300</v>
       </c>
       <c r="N20" s="3">
         <v>300</v>
@@ -1423,152 +1457,161 @@
         <v>300</v>
       </c>
       <c r="P20" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-700</v>
       </c>
-      <c r="V21" s="3" t="s">
+      <c r="W21" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
       </c>
       <c r="H22" s="3">
+        <v>200</v>
+      </c>
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>800</v>
       </c>
       <c r="K22" s="3">
         <v>800</v>
       </c>
       <c r="L22" s="3">
+        <v>800</v>
+      </c>
+      <c r="M22" s="3">
         <v>1900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>600</v>
       </c>
-      <c r="U22" s="3">
-        <v>100</v>
-      </c>
       <c r="V22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1576,61 +1619,64 @@
         <v>100</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
       <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-4300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-800</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1737,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,8 +1802,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1762,61 +1814,64 @@
         <v>100</v>
       </c>
       <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
       <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-4300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-800</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1824,61 +1879,64 @@
         <v>100</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-4300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-800</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,40 +2192,43 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2900</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>600</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-300</v>
       </c>
       <c r="N32" s="3">
         <v>-300</v>
@@ -2167,28 +2237,31 @@
         <v>-300</v>
       </c>
       <c r="P32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
-        <v>100</v>
-      </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2196,61 +2269,64 @@
         <v>100</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
       <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-4300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,8 +2387,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2320,128 +2399,134 @@
         <v>100</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
       <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-4300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,8 +2574,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2524,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -2550,8 +2637,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,8 +2702,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2627,10 +2720,10 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2639,23 +2732,23 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>400</v>
       </c>
       <c r="M43" s="3">
+        <v>400</v>
+      </c>
+      <c r="N43" s="3">
         <v>900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
@@ -2666,16 +2759,19 @@
         <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2724,8 +2820,8 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>10</v>
+      <c r="S44" s="3">
+        <v>0</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>10</v>
@@ -2736,8 +2832,11 @@
       <c r="V44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2747,8 +2846,8 @@
       <c r="E45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2760,46 +2859,49 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1500</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
-        <v>100</v>
-      </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2807,61 +2909,64 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,8 +3027,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2984,8 +3092,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2993,7 +3104,7 @@
         <v>1100</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -3002,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>100</v>
@@ -3023,7 +3134,7 @@
         <v>100</v>
       </c>
       <c r="O49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P49" s="3">
         <v>200</v>
@@ -3040,14 +3151,17 @@
       <c r="T49" s="3">
         <v>200</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>10</v>
+      <c r="U49" s="3">
+        <v>200</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,17 +3417,20 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1100</v>
       </c>
-      <c r="E54" s="3">
-        <v>100</v>
-      </c>
       <c r="F54" s="3">
         <v>100</v>
       </c>
@@ -3318,25 +3444,25 @@
         <v>100</v>
       </c>
       <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>900</v>
-      </c>
-      <c r="P54" s="3">
-        <v>500</v>
       </c>
       <c r="Q54" s="3">
         <v>500</v>
@@ -3345,19 +3471,22 @@
         <v>500</v>
       </c>
       <c r="S54" s="3">
+        <v>500</v>
+      </c>
+      <c r="T54" s="3">
         <v>600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3534,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3413,61 +3544,64 @@
         <v>1100</v>
       </c>
       <c r="E57" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F57" s="3">
         <v>1000</v>
       </c>
       <c r="G57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1000</v>
       </c>
       <c r="M57" s="3">
         <v>1000</v>
       </c>
       <c r="N57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
-      </c>
-      <c r="P57" s="3">
-        <v>900</v>
       </c>
       <c r="Q57" s="3">
         <v>900</v>
       </c>
       <c r="R57" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="S57" s="3">
         <v>800</v>
       </c>
       <c r="T57" s="3">
+        <v>800</v>
+      </c>
+      <c r="U57" s="3">
         <v>700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3475,185 +3609,194 @@
         <v>1000</v>
       </c>
       <c r="E58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F58" s="3">
         <v>1100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1300</v>
       </c>
       <c r="K58" s="3">
         <v>1300</v>
       </c>
       <c r="L58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>900</v>
-      </c>
-      <c r="O58" s="3">
-        <v>700</v>
       </c>
       <c r="P58" s="3">
         <v>700</v>
       </c>
       <c r="Q58" s="3">
+        <v>700</v>
+      </c>
+      <c r="R58" s="3">
         <v>300</v>
-      </c>
-      <c r="R58" s="3">
-        <v>600</v>
       </c>
       <c r="S58" s="3">
         <v>600</v>
       </c>
       <c r="T58" s="3">
+        <v>600</v>
+      </c>
+      <c r="U58" s="3">
         <v>700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>2500</v>
       </c>
       <c r="I59" s="3">
         <v>2500</v>
       </c>
       <c r="J59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K59" s="3">
         <v>4200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3661,50 +3804,50 @@
         <v>600</v>
       </c>
       <c r="E61" s="3">
+        <v>600</v>
+      </c>
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>200</v>
-      </c>
-      <c r="I61" s="3">
-        <v>700</v>
       </c>
       <c r="J61" s="3">
         <v>700</v>
       </c>
       <c r="K61" s="3">
+        <v>700</v>
+      </c>
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>300</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -3714,16 +3857,19 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>10</v>
+      <c r="E62" s="3">
+        <v>500</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>10</v>
@@ -3752,8 +3898,8 @@
       <c r="N62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3761,8 +3907,8 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>10</v>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>10</v>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E66" s="3">
         <v>3700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4000</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>3200</v>
       </c>
       <c r="R66" s="3">
         <v>3200</v>
       </c>
       <c r="S66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="T66" s="3">
         <v>2200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-31300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-31400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-34300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-30900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-32100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-31700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-31800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-27500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-26100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-23500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-22500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-21100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-18900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-18500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-17100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-15500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-14200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-7500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-6800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-6600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-7700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3500</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-2600</v>
       </c>
       <c r="M76" s="3">
         <v>-2600</v>
       </c>
       <c r="N76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="O76" s="3">
         <v>-2900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3500</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-2700</v>
       </c>
       <c r="R76" s="3">
         <v>-2700</v>
       </c>
       <c r="S76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="T76" s="3">
         <v>-1600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,75 +4857,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4744,61 +4939,64 @@
         <v>100</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
       <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-4300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4869,10 +5068,10 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -4880,11 +5079,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5326,8 +5547,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>10</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>10</v>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,22 +5692,25 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -5488,8 +5718,8 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5519,16 +5749,19 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6042,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>500</v>
       </c>
       <c r="R100" s="3">
         <v>500</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="U100" s="3">
-        <v>100</v>
-      </c>
       <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,8 +6172,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5953,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
@@ -5962,7 +6214,7 @@
         <v>-100</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P102" s="3">
         <v>100</v>
@@ -5971,7 +6223,7 @@
         <v>100</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
@@ -5983,6 +6235,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FSSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FSSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>FSSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,112 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -767,64 +778,73 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>200</v>
+      </c>
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
       <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
-      <c r="S8" s="3">
-        <v>100</v>
-      </c>
-      <c r="T8" s="3">
-        <v>100</v>
-      </c>
       <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
+        <v>100</v>
+      </c>
+      <c r="X8" s="3">
         <v>300</v>
       </c>
-      <c r="V8" s="3">
-        <v>100</v>
-      </c>
-      <c r="W8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -835,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -844,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -853,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -865,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -888,8 +908,17 @@
       <c r="W9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,17 +926,17 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>200</v>
+      </c>
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
@@ -915,46 +944,55 @@
         <v>100</v>
       </c>
       <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
       <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
-      <c r="T10" s="3">
-        <v>100</v>
-      </c>
       <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3">
         <v>300</v>
       </c>
-      <c r="V10" s="3">
-        <v>100</v>
-      </c>
-      <c r="W10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,73 +1016,85 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
-      <c r="F12" s="3">
-        <v>100</v>
-      </c>
-      <c r="G12" s="3">
-        <v>100</v>
-      </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
       <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
-        <v>100</v>
-      </c>
-      <c r="K12" s="3" t="s">
+      <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="3">
-        <v>100</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
+        <v>100</v>
+      </c>
+      <c r="P12" s="3">
         <v>300</v>
       </c>
-      <c r="N12" s="3">
-        <v>100</v>
-      </c>
-      <c r="O12" s="3">
-        <v>200</v>
-      </c>
-      <c r="P12" s="3">
-        <v>100</v>
-      </c>
       <c r="Q12" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="R12" s="3">
         <v>200</v>
       </c>
       <c r="S12" s="3">
+        <v>100</v>
+      </c>
+      <c r="T12" s="3">
+        <v>400</v>
+      </c>
+      <c r="U12" s="3">
         <v>200</v>
-      </c>
-      <c r="T12" s="3">
-        <v>300</v>
-      </c>
-      <c r="U12" s="3">
-        <v>400</v>
       </c>
       <c r="V12" s="3">
         <v>200</v>
       </c>
       <c r="W12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="X12" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1108,8 +1158,17 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1117,20 +1176,20 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="I14" s="3">
         <v>-1400</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1138,66 +1197,75 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="P14" s="3">
         <v>-800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="R14" s="3">
         <v>-700</v>
       </c>
-      <c r="P14" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
+        <v>100</v>
+      </c>
+      <c r="T14" s="3">
         <v>-300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="U14" s="3">
         <v>-200</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>100</v>
-      </c>
-      <c r="U14" s="3">
-        <v>100</v>
-      </c>
       <c r="V14" s="3">
-        <v>100</v>
-      </c>
-      <c r="W14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>100</v>
+      </c>
+      <c r="X14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1238,8 +1306,17 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1337,159 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>400</v>
+      </c>
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>-1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>900</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1300</v>
-      </c>
-      <c r="R17" s="3">
-        <v>600</v>
       </c>
       <c r="S17" s="3">
         <v>900</v>
       </c>
       <c r="T17" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="U17" s="3">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="V17" s="3">
         <v>900</v>
       </c>
       <c r="W17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+        <v>1600</v>
+      </c>
+      <c r="X17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>1300</v>
+        <v>-300</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-500</v>
       </c>
       <c r="S18" s="3">
         <v>-800</v>
       </c>
       <c r="T18" s="3">
-        <v>-1500</v>
+        <v>-1000</v>
       </c>
       <c r="U18" s="3">
-        <v>-1400</v>
+        <v>-500</v>
       </c>
       <c r="V18" s="3">
         <v>-800</v>
       </c>
       <c r="W18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-1500</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,73 +1513,85 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>2200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>-3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>-2900</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>200</v>
-      </c>
-      <c r="R20" s="3">
-        <v>700</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-200</v>
       </c>
       <c r="T20" s="3">
         <v>200</v>
       </c>
       <c r="U20" s="3">
+        <v>700</v>
+      </c>
+      <c r="V20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W20" s="3">
+        <v>200</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1489,64 +1599,73 @@
         <v>200</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>200</v>
+      </c>
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>3500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>-3100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>-3500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
-      </c>
-      <c r="O21" s="3">
-        <v>200</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-700</v>
       </c>
       <c r="R21" s="3">
         <v>200</v>
       </c>
       <c r="S21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U21" s="3">
+        <v>200</v>
+      </c>
+      <c r="V21" s="3">
         <v>-900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="W21" s="3">
         <v>-1300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="X21" s="3">
         <v>-1500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="Y21" s="3">
         <v>-700</v>
       </c>
-      <c r="W21" s="3" t="s">
+      <c r="Z21" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1554,13 +1673,13 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>600</v>
-      </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
@@ -1569,49 +1688,58 @@
         <v>600</v>
       </c>
       <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
+        <v>600</v>
+      </c>
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>1900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="Q22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="R22" s="3">
         <v>1600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="S22" s="3">
         <v>500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="T22" s="3">
         <v>1000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>600</v>
-      </c>
-      <c r="S22" s="3">
-        <v>400</v>
-      </c>
-      <c r="T22" s="3">
-        <v>300</v>
       </c>
       <c r="U22" s="3">
         <v>600</v>
       </c>
       <c r="V22" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="W22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="X22" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1619,64 +1747,73 @@
         <v>100</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>2900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-3400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-4300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-1000</v>
       </c>
       <c r="O23" s="3">
         <v>-1400</v>
       </c>
       <c r="P23" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>-1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="V23" s="3">
         <v>-1400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="W23" s="3">
         <v>-1600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="X23" s="3">
         <v>-2100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="Y23" s="3">
         <v>-800</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1740,8 +1877,17 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,8 +1951,17 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1814,64 +1969,73 @@
         <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>2900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-3400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-4300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-1000</v>
       </c>
       <c r="O26" s="3">
         <v>-1400</v>
       </c>
       <c r="P26" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>-1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
         <v>-1400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="W26" s="3">
         <v>-1600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="X26" s="3">
         <v>-2100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="Y26" s="3">
         <v>-800</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1879,64 +2043,73 @@
         <v>100</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>2900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-3400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-4300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-1000</v>
       </c>
       <c r="O27" s="3">
         <v>-1400</v>
       </c>
       <c r="P27" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>-1700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="V27" s="3">
         <v>-1400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="W27" s="3">
         <v>-1600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="X27" s="3">
         <v>-2100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="Y27" s="3">
         <v>-800</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2173,17 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2247,17 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2321,17 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,73 +2395,91 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
         <v>-2200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>2900</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="S32" s="3">
-        <v>200</v>
       </c>
       <c r="T32" s="3">
         <v>-200</v>
       </c>
       <c r="U32" s="3">
-        <v>100</v>
+        <v>-700</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="X32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2269,64 +2487,73 @@
         <v>100</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>2900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-3400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-4300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-1000</v>
       </c>
       <c r="O33" s="3">
         <v>-1400</v>
       </c>
       <c r="P33" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>-1700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="V33" s="3">
         <v>-1400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="W33" s="3">
         <v>-1600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="X33" s="3">
         <v>-2100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="Y33" s="3">
         <v>-800</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,8 +2617,17 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2399,134 +2635,152 @@
         <v>100</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>2900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-3400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-4300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-1000</v>
       </c>
       <c r="O35" s="3">
         <v>-1400</v>
       </c>
       <c r="P35" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>-1700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="V35" s="3">
         <v>-1400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="W35" s="3">
         <v>-1600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="X35" s="3">
         <v>-2100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="Y35" s="3">
         <v>-800</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2804,11 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,19 +2832,22 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2614,25 +2874,25 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
@@ -2640,8 +2900,17 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,8 +2974,17 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2714,16 +2992,16 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2732,46 +3010,55 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="Q43" s="3">
         <v>900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="R43" s="3">
         <v>800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2823,31 +3110,40 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>10</v>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>10</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2862,46 +3158,55 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>1500</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
-      </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
-        <v>100</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="W45" s="3">
         <v>400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="X45" s="3">
         <v>900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="Y45" s="3">
         <v>1100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Z45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2912,10 +3217,10 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -2927,46 +3232,55 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>2000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>1000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="V46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="W46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="X46" s="3">
         <v>900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="Y46" s="3">
         <v>1200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Z46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,19 +3344,28 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -3095,34 +3418,43 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>700</v>
+      </c>
+      <c r="F49" s="3">
+        <v>700</v>
+      </c>
+      <c r="G49" s="3">
         <v>1100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="H49" s="3">
         <v>1100</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
       <c r="I49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L49" s="3">
         <v>100</v>
@@ -3137,13 +3469,13 @@
         <v>100</v>
       </c>
       <c r="P49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S49" s="3">
         <v>200</v>
@@ -3154,14 +3486,23 @@
       <c r="U49" s="3">
         <v>200</v>
       </c>
-      <c r="V49" s="3" t="s">
+      <c r="V49" s="3">
+        <v>200</v>
+      </c>
+      <c r="W49" s="3">
+        <v>200</v>
+      </c>
+      <c r="X49" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W49" s="3" t="s">
+      <c r="Z49" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3566,17 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,8 +3640,17 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3355,8 +3714,17 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,26 +3788,35 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H54" s="3">
         <v>1100</v>
       </c>
-      <c r="F54" s="3">
-        <v>100</v>
-      </c>
-      <c r="G54" s="3">
-        <v>100</v>
-      </c>
-      <c r="H54" s="3">
-        <v>100</v>
-      </c>
       <c r="I54" s="3">
         <v>100</v>
       </c>
@@ -3447,46 +3824,55 @@
         <v>100</v>
       </c>
       <c r="K54" s="3">
+        <v>100</v>
+      </c>
+      <c r="L54" s="3">
+        <v>100</v>
+      </c>
+      <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>1600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>2100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>1000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>1100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="V54" s="3">
         <v>500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="W54" s="3">
         <v>600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="X54" s="3">
         <v>1100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="Y54" s="3">
         <v>1200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Z54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3896,11 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,8 +3924,11 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3547,40 +3939,40 @@
         <v>1100</v>
       </c>
       <c r="F57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>2300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>2200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>1000</v>
-      </c>
-      <c r="O57" s="3">
-        <v>900</v>
-      </c>
-      <c r="P57" s="3">
-        <v>800</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>900</v>
       </c>
       <c r="R57" s="3">
         <v>900</v>
@@ -3589,252 +3981,288 @@
         <v>800</v>
       </c>
       <c r="T57" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="U57" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="V57" s="3">
         <v>800</v>
       </c>
       <c r="W57" s="3">
+        <v>800</v>
+      </c>
+      <c r="X57" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I58" s="3">
         <v>1100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>1900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>2700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>1800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>1100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>1300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>1300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>1100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="S58" s="3">
         <v>700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="T58" s="3">
         <v>700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="U58" s="3">
         <v>300</v>
-      </c>
-      <c r="S58" s="3">
-        <v>600</v>
-      </c>
-      <c r="T58" s="3">
-        <v>600</v>
-      </c>
-      <c r="U58" s="3">
-        <v>700</v>
       </c>
       <c r="V58" s="3">
         <v>600</v>
       </c>
       <c r="W58" s="3">
+        <v>600</v>
+      </c>
+      <c r="X58" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E59" s="3">
         <v>500</v>
       </c>
       <c r="F59" s="3">
+        <v>300</v>
+      </c>
+      <c r="G59" s="3">
+        <v>400</v>
+      </c>
+      <c r="H59" s="3">
+        <v>500</v>
+      </c>
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>4300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>2500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>2500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>4200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>2300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>2200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>1700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>2800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>2100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="U59" s="3">
         <v>1800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="V59" s="3">
         <v>1500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="W59" s="3">
         <v>800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="X59" s="3">
         <v>300</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>2900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>7100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>5000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>6700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>5900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>7600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>4700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>4200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>3200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>3400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>4400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>3600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>3000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>2900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="W60" s="3">
         <v>2200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="X60" s="3">
         <v>1700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="Y60" s="3">
         <v>1400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Z60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>900</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G61" s="3">
         <v>600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="H61" s="3">
         <v>600</v>
-      </c>
-      <c r="F61" s="3">
-        <v>200</v>
-      </c>
-      <c r="G61" s="3">
-        <v>500</v>
-      </c>
-      <c r="H61" s="3">
-        <v>400</v>
       </c>
       <c r="I61" s="3">
         <v>200</v>
       </c>
       <c r="J61" s="3">
+        <v>500</v>
+      </c>
+      <c r="K61" s="3">
+        <v>400</v>
+      </c>
+      <c r="L61" s="3">
+        <v>200</v>
+      </c>
+      <c r="M61" s="3">
         <v>700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>400</v>
-      </c>
-      <c r="M61" s="3">
-        <v>500</v>
-      </c>
-      <c r="N61" s="3">
-        <v>400</v>
-      </c>
-      <c r="O61" s="3">
-        <v>600</v>
       </c>
       <c r="P61" s="3">
         <v>500</v>
@@ -3843,42 +4271,51 @@
         <v>400</v>
       </c>
       <c r="R61" s="3">
+        <v>600</v>
+      </c>
+      <c r="S61" s="3">
+        <v>500</v>
+      </c>
+      <c r="T61" s="3">
+        <v>400</v>
+      </c>
+      <c r="U61" s="3">
         <v>200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="V61" s="3">
         <v>300</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>400</v>
+      </c>
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>10</v>
@@ -3901,23 +4338,23 @@
       <c r="O62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3" t="s">
+      <c r="P62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T62" s="3" t="s">
+      <c r="Q62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U62" s="3" t="s">
+      <c r="R62" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>10</v>
@@ -3925,8 +4362,17 @@
       <c r="W62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4436,17 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4510,17 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4584,91 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="E66" s="3">
         <v>3700</v>
       </c>
       <c r="F66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I66" s="3">
         <v>3100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>7600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>5400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>6900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>6700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>8300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>5100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>4700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>3600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>4000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>4900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>4000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>3200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>3200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>2200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="X66" s="3">
         <v>1700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="Y66" s="3">
         <v>1400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Z66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4692,11 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4760,17 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4834,17 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4908,17 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4982,91 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="G72" s="3">
         <v>-31200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-31300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-31400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-34300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-30900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-32100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-31700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-31800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-27500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-26100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-23500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-22500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-20200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-18900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-18500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>-17100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="X72" s="3">
         <v>-15500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="Y72" s="3">
         <v>-14200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Z72" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +5130,17 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +5204,17 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,8 +5278,17 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4742,61 +5299,70 @@
         <v>-2500</v>
       </c>
       <c r="F76" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I76" s="3">
         <v>-3100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-7500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-5300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-6800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-6600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-7700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-3500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>-2600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>-2600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>-2900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>-3500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>-2700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>-2700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>-1600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="X76" s="3">
         <v>-500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="Y76" s="3">
         <v>-300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Z76" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,78 +5426,96 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4939,64 +5523,73 @@
         <v>100</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>2900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-3400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-4300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-1000</v>
       </c>
       <c r="O81" s="3">
         <v>-1400</v>
       </c>
       <c r="P81" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>-1700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="V81" s="3">
         <v>-1400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="W81" s="3">
         <v>-1600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="X81" s="3">
         <v>-2100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="Y81" s="3">
         <v>-800</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,19 +5613,22 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -5071,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -5080,13 +5676,22 @@
         <v>0</v>
       </c>
       <c r="V83" s="3">
-        <v>0</v>
-      </c>
-      <c r="W83" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5755,17 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5829,17 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5903,17 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5977,17 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,31 +6051,40 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-200</v>
-      </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -5443,40 +6093,49 @@
         <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>-1400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="T89" s="3">
         <v>-1100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="X89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Z89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +6159,11 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5550,14 +6212,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>10</v>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>10</v>
@@ -5565,8 +6227,17 @@
       <c r="W91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +6301,17 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,28 +6375,37 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
         <v>600</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="H94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="I94" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>10</v>
@@ -5727,8 +6416,8 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5752,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -5760,8 +6449,17 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6483,11 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6551,17 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6625,17 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6699,17 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,8 +6773,17 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6054,64 +6791,73 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>600</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>200</v>
       </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O100" s="3">
+        <v>200</v>
+      </c>
+      <c r="P100" s="3">
         <v>900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="R100" s="3">
         <v>1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="S100" s="3">
         <v>800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="T100" s="3">
         <v>1200</v>
-      </c>
-      <c r="R100" s="3">
-        <v>500</v>
-      </c>
-      <c r="S100" s="3">
-        <v>500</v>
-      </c>
-      <c r="T100" s="3">
-        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>500</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,19 +6921,28 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -6208,36 +6963,45 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FSSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FSSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>FSSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,116 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,17 +785,17 @@
         <v>200</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
       <c r="J8" s="3">
         <v>100</v>
       </c>
@@ -799,23 +803,23 @@
         <v>100</v>
       </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
       <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
       <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
       <c r="R8" s="3">
         <v>100</v>
       </c>
@@ -823,11 +827,11 @@
         <v>100</v>
       </c>
       <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
         <v>300</v>
       </c>
-      <c r="U8" s="3">
-        <v>100</v>
-      </c>
       <c r="V8" s="3">
         <v>100</v>
       </c>
@@ -835,16 +839,19 @@
         <v>100</v>
       </c>
       <c r="X8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y8" s="3">
         <v>300</v>
       </c>
-      <c r="Y8" s="3">
-        <v>100</v>
-      </c>
       <c r="Z8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -855,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -873,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -885,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
@@ -917,8 +924,11 @@
       <c r="Z9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -929,17 +939,17 @@
         <v>200</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
@@ -953,17 +963,17 @@
         <v>100</v>
       </c>
       <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
       <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
-        <v>100</v>
-      </c>
       <c r="R10" s="3">
         <v>100</v>
       </c>
@@ -971,11 +981,11 @@
         <v>100</v>
       </c>
       <c r="T10" s="3">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
         <v>300</v>
       </c>
-      <c r="U10" s="3">
-        <v>100</v>
-      </c>
       <c r="V10" s="3">
         <v>100</v>
       </c>
@@ -983,16 +993,19 @@
         <v>100</v>
       </c>
       <c r="X10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3">
         <v>300</v>
       </c>
-      <c r="Y10" s="3">
-        <v>100</v>
-      </c>
       <c r="Z10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1031,14 +1045,14 @@
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3">
-        <v>100</v>
-      </c>
       <c r="I12" s="3">
         <v>100</v>
       </c>
@@ -1049,52 +1063,55 @@
         <v>100</v>
       </c>
       <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
-        <v>100</v>
-      </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="3">
-        <v>100</v>
-      </c>
       <c r="P12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3">
         <v>300</v>
       </c>
-      <c r="Q12" s="3">
-        <v>100</v>
-      </c>
       <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3">
         <v>200</v>
       </c>
-      <c r="S12" s="3">
-        <v>100</v>
-      </c>
       <c r="T12" s="3">
+        <v>100</v>
+      </c>
+      <c r="U12" s="3">
         <v>400</v>
-      </c>
-      <c r="U12" s="3">
-        <v>200</v>
       </c>
       <c r="V12" s="3">
         <v>200</v>
       </c>
       <c r="W12" s="3">
+        <v>200</v>
+      </c>
+      <c r="X12" s="3">
         <v>300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>200</v>
       </c>
-      <c r="Z12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1167,8 +1184,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1185,14 +1205,14 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-1400</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1206,31 +1226,31 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-700</v>
       </c>
-      <c r="S14" s="3">
-        <v>100</v>
-      </c>
       <c r="T14" s="3">
+        <v>100</v>
+      </c>
+      <c r="U14" s="3">
         <v>-300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-200</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X14" s="3">
         <v>100</v>
@@ -1238,11 +1258,14 @@
       <c r="Y14" s="3">
         <v>100</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="Z14" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1252,8 +1275,8 @@
       <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>10</v>
+      <c r="F15" s="3">
+        <v>100</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>10</v>
@@ -1267,8 +1290,8 @@
       <c r="J15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,8 +1366,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1352,70 +1379,73 @@
         <v>300</v>
       </c>
       <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
       </c>
       <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>900</v>
       </c>
-      <c r="Z17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1426,70 +1456,73 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-600</v>
       </c>
       <c r="O18" s="3">
         <v>-600</v>
       </c>
       <c r="P18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-800</v>
       </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,52 +1549,53 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2900</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>300</v>
       </c>
       <c r="R20" s="3">
         <v>300</v>
@@ -1570,102 +1604,108 @@
         <v>300</v>
       </c>
       <c r="T20" s="3">
+        <v>300</v>
+      </c>
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-700</v>
       </c>
-      <c r="Z21" s="3" t="s">
+      <c r="AA21" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1676,144 +1716,150 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>600</v>
-      </c>
-      <c r="J22" s="3">
-        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
       </c>
       <c r="L22" s="3">
+        <v>200</v>
+      </c>
+      <c r="M22" s="3">
         <v>600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
-      </c>
-      <c r="N22" s="3">
-        <v>800</v>
       </c>
       <c r="O22" s="3">
         <v>800</v>
       </c>
       <c r="P22" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q22" s="3">
         <v>1900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>600</v>
       </c>
-      <c r="Y22" s="3">
-        <v>100</v>
-      </c>
       <c r="Z22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>-600</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
         <v>100</v>
       </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>2900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-4300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-800</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1886,8 +1932,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>-600</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
         <v>100</v>
       </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-4300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-800</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>-600</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
         <v>100</v>
       </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-4300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-800</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,52 +2471,55 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2900</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>600</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-300</v>
       </c>
       <c r="R32" s="3">
         <v>-300</v>
@@ -2458,102 +2528,108 @@
         <v>-300</v>
       </c>
       <c r="T32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
-        <v>100</v>
-      </c>
       <c r="Y32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>-600</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
         <v>100</v>
       </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>2900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
       <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-4300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-800</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>-600</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
         <v>100</v>
       </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>2900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
       <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-4300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-800</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,23 +2921,24 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2883,19 +2970,19 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
-        <v>100</v>
-      </c>
       <c r="U41" s="3">
         <v>100</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
@@ -2909,8 +2996,11 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,8 +3073,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2992,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -3010,10 +3103,10 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -3022,23 +3115,23 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>400</v>
       </c>
       <c r="Q43" s="3">
+        <v>400</v>
+      </c>
+      <c r="R43" s="3">
         <v>900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
@@ -3049,16 +3142,19 @@
         <v>0</v>
       </c>
       <c r="X43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="3">
         <v>100</v>
       </c>
       <c r="Z43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3119,8 +3215,8 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>10</v>
+      <c r="W44" s="3">
+        <v>0</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>10</v>
@@ -3131,8 +3227,11 @@
       <c r="Z44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3167,46 +3266,49 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1500</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
-        <v>100</v>
-      </c>
       <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3217,70 +3319,73 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,22 +3458,25 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>400</v>
       </c>
-      <c r="F48" s="3">
-        <v>100</v>
-      </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -3427,8 +3535,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3436,19 +3547,19 @@
         <v>600</v>
       </c>
       <c r="E49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F49" s="3">
         <v>700</v>
       </c>
       <c r="G49" s="3">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="H49" s="3">
         <v>1100</v>
       </c>
       <c r="I49" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -3457,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M49" s="3">
         <v>100</v>
@@ -3478,7 +3589,7 @@
         <v>100</v>
       </c>
       <c r="S49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T49" s="3">
         <v>200</v>
@@ -3495,14 +3606,17 @@
       <c r="X49" s="3">
         <v>200</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>10</v>
+      <c r="Y49" s="3">
+        <v>200</v>
       </c>
       <c r="Z49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3766,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3723,8 +3843,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,29 +3920,32 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1100</v>
       </c>
-      <c r="I54" s="3">
-        <v>100</v>
-      </c>
       <c r="J54" s="3">
         <v>100</v>
       </c>
@@ -3833,25 +3959,25 @@
         <v>100</v>
       </c>
       <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>900</v>
-      </c>
-      <c r="T54" s="3">
-        <v>500</v>
       </c>
       <c r="U54" s="3">
         <v>500</v>
@@ -3860,19 +3986,22 @@
         <v>500</v>
       </c>
       <c r="W54" s="3">
+        <v>500</v>
+      </c>
+      <c r="X54" s="3">
         <v>600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,13 +4057,14 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="E57" s="3">
         <v>1100</v>
@@ -3948,72 +4079,75 @@
         <v>1100</v>
       </c>
       <c r="I57" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J57" s="3">
         <v>1000</v>
       </c>
       <c r="K57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1000</v>
       </c>
       <c r="Q57" s="3">
         <v>1000</v>
       </c>
       <c r="R57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S57" s="3">
         <v>900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>800</v>
-      </c>
-      <c r="T57" s="3">
-        <v>900</v>
       </c>
       <c r="U57" s="3">
         <v>900</v>
       </c>
       <c r="V57" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="W57" s="3">
         <v>800</v>
       </c>
       <c r="X57" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y57" s="3">
         <v>700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3">
         <v>1700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1000</v>
       </c>
       <c r="G58" s="3">
         <v>1000</v>
@@ -4022,209 +4156,218 @@
         <v>1000</v>
       </c>
       <c r="I58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J58" s="3">
         <v>1100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1300</v>
       </c>
       <c r="O58" s="3">
         <v>1300</v>
       </c>
       <c r="P58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>900</v>
-      </c>
-      <c r="S58" s="3">
-        <v>700</v>
       </c>
       <c r="T58" s="3">
         <v>700</v>
       </c>
       <c r="U58" s="3">
+        <v>700</v>
+      </c>
+      <c r="V58" s="3">
         <v>300</v>
-      </c>
-      <c r="V58" s="3">
-        <v>600</v>
       </c>
       <c r="W58" s="3">
         <v>600</v>
       </c>
       <c r="X58" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y58" s="3">
         <v>700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>2500</v>
       </c>
       <c r="M59" s="3">
         <v>2500</v>
       </c>
       <c r="N59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O59" s="3">
         <v>4200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>300</v>
       </c>
-      <c r="Y59" s="3">
-        <v>0</v>
-      </c>
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E60" s="3">
         <v>3400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2400</v>
       </c>
       <c r="G60" s="3">
         <v>2400</v>
       </c>
       <c r="H60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4232,62 +4375,62 @@
         <v>400</v>
       </c>
       <c r="E61" s="3">
+        <v>400</v>
+      </c>
+      <c r="F61" s="3">
         <v>900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>600</v>
       </c>
       <c r="H61" s="3">
         <v>600</v>
       </c>
       <c r="I61" s="3">
+        <v>600</v>
+      </c>
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>200</v>
-      </c>
-      <c r="M61" s="3">
-        <v>700</v>
       </c>
       <c r="N61" s="3">
         <v>700</v>
       </c>
       <c r="O61" s="3">
+        <v>700</v>
+      </c>
+      <c r="P61" s="3">
         <v>400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>300</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4297,28 +4440,31 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>400</v>
-      </c>
-      <c r="G62" s="3">
-        <v>500</v>
       </c>
       <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>10</v>
+      <c r="I62" s="3">
+        <v>500</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>10</v>
@@ -4347,8 +4493,8 @@
       <c r="R62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4356,8 +4502,8 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>10</v>
+      <c r="V62" s="3">
+        <v>0</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>10</v>
@@ -4371,8 +4517,11 @@
       <c r="Z62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4748,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E66" s="3">
         <v>3800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4000</v>
-      </c>
-      <c r="U66" s="3">
-        <v>3200</v>
       </c>
       <c r="V66" s="3">
         <v>3200</v>
       </c>
       <c r="W66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="X66" s="3">
         <v>2200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5162,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-31400</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-31500</v>
       </c>
       <c r="F72" s="3">
         <v>-31500</v>
       </c>
       <c r="G72" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="H72" s="3">
         <v>-31200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-31300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-31400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-34300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-30900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-32100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-31700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-31800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-27500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-26100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-23500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-22500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-21100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-20200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-18900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-18500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-17100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-15500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-14200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5470,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2400</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-2500</v>
       </c>
       <c r="F76" s="3">
         <v>-2500</v>
       </c>
       <c r="G76" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="H76" s="3">
         <v>-2400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-7500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-6800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-6600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-7700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3500</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-2600</v>
       </c>
       <c r="Q76" s="3">
         <v>-2600</v>
       </c>
       <c r="R76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="S76" s="3">
         <v>-2900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-4000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3500</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-2700</v>
       </c>
       <c r="V76" s="3">
         <v>-2700</v>
       </c>
       <c r="W76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="X76" s="3">
         <v>-1600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>-600</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
         <v>100</v>
       </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>2900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
       <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-4300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-800</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5814,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5631,7 +5830,7 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -5676,10 +5875,10 @@
         <v>0</v>
       </c>
       <c r="V83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
@@ -5687,11 +5886,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-      <c r="Z83" s="3" t="s">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6382,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6221,8 +6442,8 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>10</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>10</v>
@@ -6236,8 +6457,11 @@
       <c r="Z91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,25 +6611,28 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>600</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>10</v>
@@ -6410,18 +6640,18 @@
       <c r="J94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -6450,16 +6680,19 @@
         <v>0</v>
       </c>
       <c r="X94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,8 +7025,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6794,70 +7040,73 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1200</v>
-      </c>
-      <c r="U100" s="3">
-        <v>500</v>
       </c>
       <c r="V100" s="3">
         <v>500</v>
       </c>
       <c r="W100" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="X100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
         <v>500</v>
       </c>
-      <c r="Y100" s="3">
-        <v>100</v>
-      </c>
       <c r="Z100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,23 +7179,26 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -6972,7 +7224,7 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
         <v>-100</v>
@@ -6981,7 +7233,7 @@
         <v>-100</v>
       </c>
       <c r="S102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T102" s="3">
         <v>100</v>
@@ -6990,7 +7242,7 @@
         <v>100</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
         <v>0</v>
@@ -7002,6 +7254,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>
